--- a/Marijuana_Decriminilization_Status_One_Equals_Legalization_Entire_Year.xlsx
+++ b/Marijuana_Decriminilization_Status_One_Equals_Legalization_Entire_Year.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesse's PC\Documents\UW MPA\Y2 Q1\529\529_DD_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7DEDCB-C60C-4DF8-A169-9A50267615B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EEC4A38-34B4-47FF-B117-F25B052CF4AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14746" xr2:uid="{E7D73D33-65BC-48E4-83C1-61B8CF6FB1D1}"/>
   </bookViews>
@@ -557,7 +557,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -679,22 +679,22 @@
         <v>0</v>
       </c>
       <c r="C5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">

--- a/Marijuana_Decriminilization_Status_One_Equals_Legalization_Entire_Year.xlsx
+++ b/Marijuana_Decriminilization_Status_One_Equals_Legalization_Entire_Year.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesse's PC\Documents\UW MPA\Y2 Q1\529\529_DD_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EEC4A38-34B4-47FF-B117-F25B052CF4AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B55714-F1DE-4D98-9B58-D6DEFDC7FAC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14746" xr2:uid="{E7D73D33-65BC-48E4-83C1-61B8CF6FB1D1}"/>
   </bookViews>
@@ -556,8 +556,8 @@
   <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -734,19 +734,19 @@
         <v>0</v>
       </c>
       <c r="D7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
@@ -795,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="3">
         <v>1</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
@@ -1040,25 +1040,25 @@
         <v>17</v>
       </c>
       <c r="B19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
@@ -1081,10 +1081,10 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
@@ -1092,25 +1092,25 @@
         <v>19</v>
       </c>
       <c r="B21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
@@ -1572,13 +1572,13 @@
         <v>0</v>
       </c>
       <c r="F39" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
@@ -1728,13 +1728,13 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.45">
@@ -1872,22 +1872,22 @@
         <v>49</v>
       </c>
       <c r="B51" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" s="3">
         <v>1</v>

--- a/Marijuana_Decriminilization_Status_One_Equals_Legalization_Entire_Year.xlsx
+++ b/Marijuana_Decriminilization_Status_One_Equals_Legalization_Entire_Year.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesse's PC\Documents\UW MPA\Y2 Q1\529\529_DD_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B55714-F1DE-4D98-9B58-D6DEFDC7FAC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344FDC98-7F82-4F0A-8244-A8618EC4D13E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14746" xr2:uid="{E7D73D33-65BC-48E4-83C1-61B8CF6FB1D1}"/>
   </bookViews>
@@ -553,47 +553,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2E9A60-D8A1-4D60-8431-7F12FF08D4A0}">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I51" sqref="I51"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="22.59765625" customWidth="1"/>
-    <col min="2" max="9" width="17.1328125" style="3" customWidth="1"/>
+    <col min="2" max="10" width="17.1328125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B1" s="2">
+        <v>2009</v>
+      </c>
+      <c r="C1" s="2">
         <v>2010</v>
       </c>
-      <c r="C1" s="2">
+      <c r="D1" s="2">
         <v>2011</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="2">
         <v>2012</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="2">
         <v>2013</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="2">
         <v>2014</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="2">
         <v>2015</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I1" s="2">
         <v>2016</v>
       </c>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -618,8 +621,11 @@
       <c r="H2" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -644,8 +650,11 @@
       <c r="H3" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -670,8 +679,11 @@
       <c r="H4" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -679,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
@@ -696,8 +708,11 @@
       <c r="H5" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -711,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
@@ -722,8 +737,11 @@
       <c r="H6" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -734,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -748,8 +766,11 @@
       <c r="H7" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -772,10 +793,13 @@
         <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -795,13 +819,16 @@
         <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -826,8 +853,11 @@
       <c r="H10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -852,8 +882,11 @@
       <c r="H11" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -878,8 +911,11 @@
       <c r="H12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -902,10 +938,13 @@
         <v>0</v>
       </c>
       <c r="H13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -930,8 +969,11 @@
       <c r="H14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -956,8 +998,11 @@
       <c r="H15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -982,8 +1027,11 @@
       <c r="H16" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1008,8 +1056,11 @@
       <c r="H17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1034,8 +1085,11 @@
       <c r="H18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1060,8 +1114,11 @@
       <c r="H19" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1081,13 +1138,16 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1112,8 +1172,11 @@
       <c r="H21" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1138,8 +1201,11 @@
       <c r="H22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1164,8 +1230,11 @@
       <c r="H23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1190,8 +1259,11 @@
       <c r="H24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1216,8 +1288,11 @@
       <c r="H25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1242,8 +1317,11 @@
       <c r="H26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1268,8 +1346,11 @@
       <c r="H27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1294,8 +1375,11 @@
       <c r="H28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1320,8 +1404,11 @@
       <c r="H29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1346,8 +1433,11 @@
       <c r="H30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1372,8 +1462,11 @@
       <c r="H31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1398,8 +1491,11 @@
       <c r="H32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1424,8 +1520,11 @@
       <c r="H33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1450,8 +1549,11 @@
       <c r="H34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1476,8 +1578,11 @@
       <c r="H35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1502,8 +1607,11 @@
       <c r="H36" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I36" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1526,10 +1634,13 @@
         <v>0</v>
       </c>
       <c r="H37" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+      <c r="I37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1554,8 +1665,11 @@
       <c r="H38" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I38" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1572,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39" s="3">
         <v>1</v>
@@ -1580,8 +1694,11 @@
       <c r="H39" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I39" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1606,8 +1723,11 @@
       <c r="H40" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I40" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -1632,8 +1752,11 @@
       <c r="H41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -1658,8 +1781,11 @@
       <c r="H42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -1684,8 +1810,11 @@
       <c r="H43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -1710,8 +1839,11 @@
       <c r="H44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -1728,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>1</v>
@@ -1736,8 +1868,11 @@
       <c r="H45" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I45" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -1762,8 +1897,11 @@
       <c r="H46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -1777,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" s="3">
         <v>1</v>
@@ -1788,8 +1926,11 @@
       <c r="H47" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I47" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -1814,8 +1955,11 @@
       <c r="H48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -1840,8 +1984,11 @@
       <c r="H49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -1866,8 +2013,11 @@
       <c r="H50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -1892,8 +2042,11 @@
       <c r="H51" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I51" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -1916,6 +2069,9 @@
         <v>0</v>
       </c>
       <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
         <v>0</v>
       </c>
     </row>
